--- a/FinanzasFinal.xlsx
+++ b/FinanzasFinal.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="375" windowWidth="19875" windowHeight="6450" tabRatio="897" activeTab="3"/>
+    <workbookView xWindow="480" yWindow="375" windowWidth="19875" windowHeight="6450" tabRatio="897" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="PROYECCION DE VENTAS" sheetId="22" r:id="rId1"/>
@@ -97,7 +97,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="849" uniqueCount="289">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="850" uniqueCount="290">
   <si>
     <t>STARKEY PERU</t>
   </si>
@@ -1083,12 +1083,15 @@
   <si>
     <t>Variación</t>
   </si>
+  <si>
+    <t>|</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="10">
+  <numFmts count="11">
     <numFmt numFmtId="44" formatCode="_ &quot;S/.&quot;\ * #,##0.00_ ;_ &quot;S/.&quot;\ * \-#,##0.00_ ;_ &quot;S/.&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
@@ -1099,6 +1102,7 @@
     <numFmt numFmtId="169" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="170" formatCode="_-&quot;S/.&quot;* #,##0.0_-;\-&quot;S/.&quot;* #,##0.0_-;_-&quot;S/.&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="171" formatCode="_-&quot;S/.&quot;* #,##0_-;\-&quot;S/.&quot;* #,##0_-;_-&quot;S/.&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="174" formatCode="&quot;S/.&quot;\ #,##0.00"/>
   </numFmts>
   <fonts count="46">
     <font>
@@ -2411,7 +2415,7 @@
     <xf numFmtId="9" fontId="38" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="433">
+  <cellXfs count="436">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1">
       <protection locked="0"/>
@@ -3445,6 +3449,10 @@
     <xf numFmtId="0" fontId="27" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="9" fontId="16" fillId="6" borderId="0" xfId="29" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
@@ -3534,18 +3542,18 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="1" fontId="15" fillId="6" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="15" fillId="6" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="1" fontId="15" fillId="6" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="15" fillId="6" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3614,6 +3622,8 @@
     <xf numFmtId="9" fontId="0" fillId="6" borderId="59" xfId="29" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="38" fontId="16" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="174" fontId="16" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="30">
     <cellStyle name="Comma 2" xfId="6"/>
@@ -3965,28 +3975,28 @@
   <sheetData>
     <row r="1" spans="1:21" ht="18.75">
       <c r="A1" s="1"/>
-      <c r="B1" s="381" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="381"/>
-      <c r="D1" s="381"/>
-      <c r="E1" s="381"/>
-      <c r="F1" s="381"/>
-      <c r="G1" s="381"/>
-      <c r="H1" s="381"/>
-      <c r="I1" s="381"/>
-      <c r="J1" s="381"/>
-      <c r="K1" s="381"/>
-      <c r="L1" s="381"/>
-      <c r="M1" s="381"/>
-      <c r="N1" s="381"/>
-      <c r="O1" s="381"/>
-      <c r="P1" s="381"/>
-      <c r="Q1" s="381"/>
-      <c r="R1" s="381"/>
-      <c r="S1" s="381"/>
-      <c r="T1" s="381"/>
-      <c r="U1" s="381"/>
+      <c r="B1" s="382" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="382"/>
+      <c r="D1" s="382"/>
+      <c r="E1" s="382"/>
+      <c r="F1" s="382"/>
+      <c r="G1" s="382"/>
+      <c r="H1" s="382"/>
+      <c r="I1" s="382"/>
+      <c r="J1" s="382"/>
+      <c r="K1" s="382"/>
+      <c r="L1" s="382"/>
+      <c r="M1" s="382"/>
+      <c r="N1" s="382"/>
+      <c r="O1" s="382"/>
+      <c r="P1" s="382"/>
+      <c r="Q1" s="382"/>
+      <c r="R1" s="382"/>
+      <c r="S1" s="382"/>
+      <c r="T1" s="382"/>
+      <c r="U1" s="382"/>
     </row>
     <row r="2" spans="1:21" ht="12" thickBot="1">
       <c r="A2" s="1"/>
@@ -4013,46 +4023,46 @@
     </row>
     <row r="3" spans="1:21">
       <c r="A3" s="1"/>
-      <c r="B3" s="382">
+      <c r="B3" s="383">
         <v>2017</v>
       </c>
-      <c r="C3" s="384" t="s">
+      <c r="C3" s="385" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="386" t="s">
+      <c r="D3" s="387" t="s">
         <v>2</v>
       </c>
       <c r="E3" s="7"/>
-      <c r="F3" s="388" t="s">
+      <c r="F3" s="389" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="389"/>
-      <c r="H3" s="389"/>
-      <c r="I3" s="389"/>
-      <c r="J3" s="389"/>
-      <c r="K3" s="389"/>
-      <c r="L3" s="389"/>
-      <c r="M3" s="389"/>
-      <c r="N3" s="389"/>
-      <c r="O3" s="389"/>
-      <c r="P3" s="389"/>
-      <c r="Q3" s="390"/>
-      <c r="R3" s="384" t="s">
+      <c r="G3" s="390"/>
+      <c r="H3" s="390"/>
+      <c r="I3" s="390"/>
+      <c r="J3" s="390"/>
+      <c r="K3" s="390"/>
+      <c r="L3" s="390"/>
+      <c r="M3" s="390"/>
+      <c r="N3" s="390"/>
+      <c r="O3" s="390"/>
+      <c r="P3" s="390"/>
+      <c r="Q3" s="391"/>
+      <c r="R3" s="385" t="s">
         <v>4</v>
       </c>
       <c r="S3" s="7"/>
-      <c r="T3" s="392" t="s">
+      <c r="T3" s="393" t="s">
         <v>5</v>
       </c>
-      <c r="U3" s="394" t="s">
+      <c r="U3" s="395" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:21" ht="12" thickBot="1">
       <c r="A4" s="1"/>
-      <c r="B4" s="383"/>
-      <c r="C4" s="385"/>
-      <c r="D4" s="387"/>
+      <c r="B4" s="384"/>
+      <c r="C4" s="386"/>
+      <c r="D4" s="388"/>
       <c r="E4" s="7"/>
       <c r="F4" s="8" t="s">
         <v>7</v>
@@ -4090,10 +4100,10 @@
       <c r="Q4" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="R4" s="391"/>
+      <c r="R4" s="392"/>
       <c r="S4" s="7"/>
-      <c r="T4" s="393"/>
-      <c r="U4" s="395"/>
+      <c r="T4" s="394"/>
+      <c r="U4" s="396"/>
     </row>
     <row r="5" spans="1:21">
       <c r="A5" s="1"/>
@@ -7280,45 +7290,45 @@
     </row>
     <row r="56" spans="1:21" ht="12" thickBot="1"/>
     <row r="57" spans="1:21" ht="11.1" customHeight="1">
-      <c r="B57" s="382">
+      <c r="B57" s="383">
         <v>2018</v>
       </c>
-      <c r="C57" s="384" t="s">
+      <c r="C57" s="385" t="s">
         <v>1</v>
       </c>
-      <c r="D57" s="386" t="s">
+      <c r="D57" s="387" t="s">
         <v>2</v>
       </c>
       <c r="E57" s="7"/>
-      <c r="F57" s="388" t="s">
+      <c r="F57" s="389" t="s">
         <v>45</v>
       </c>
-      <c r="G57" s="389"/>
-      <c r="H57" s="389"/>
-      <c r="I57" s="389"/>
-      <c r="J57" s="389"/>
-      <c r="K57" s="389"/>
-      <c r="L57" s="389"/>
-      <c r="M57" s="389"/>
-      <c r="N57" s="389"/>
-      <c r="O57" s="389"/>
-      <c r="P57" s="389"/>
-      <c r="Q57" s="390"/>
-      <c r="R57" s="384" t="s">
+      <c r="G57" s="390"/>
+      <c r="H57" s="390"/>
+      <c r="I57" s="390"/>
+      <c r="J57" s="390"/>
+      <c r="K57" s="390"/>
+      <c r="L57" s="390"/>
+      <c r="M57" s="390"/>
+      <c r="N57" s="390"/>
+      <c r="O57" s="390"/>
+      <c r="P57" s="390"/>
+      <c r="Q57" s="391"/>
+      <c r="R57" s="385" t="s">
         <v>4</v>
       </c>
       <c r="S57" s="7"/>
-      <c r="T57" s="392" t="s">
+      <c r="T57" s="393" t="s">
         <v>5</v>
       </c>
-      <c r="U57" s="394" t="s">
+      <c r="U57" s="395" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="58" spans="1:21" ht="12" customHeight="1" thickBot="1">
-      <c r="B58" s="396"/>
-      <c r="C58" s="391"/>
-      <c r="D58" s="397"/>
+      <c r="B58" s="397"/>
+      <c r="C58" s="392"/>
+      <c r="D58" s="398"/>
       <c r="E58" s="7"/>
       <c r="F58" s="8" t="s">
         <v>7</v>
@@ -7356,10 +7366,10 @@
       <c r="Q58" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="R58" s="391"/>
+      <c r="R58" s="392"/>
       <c r="S58" s="7"/>
-      <c r="T58" s="393"/>
-      <c r="U58" s="395"/>
+      <c r="T58" s="394"/>
+      <c r="U58" s="396"/>
     </row>
     <row r="59" spans="1:21">
       <c r="B59" s="63" t="s">
@@ -10661,45 +10671,45 @@
     </row>
     <row r="110" spans="2:21" ht="12" thickBot="1"/>
     <row r="111" spans="2:21" ht="11.1" customHeight="1">
-      <c r="B111" s="382">
+      <c r="B111" s="383">
         <v>2019</v>
       </c>
-      <c r="C111" s="384" t="s">
+      <c r="C111" s="385" t="s">
         <v>1</v>
       </c>
-      <c r="D111" s="386" t="s">
+      <c r="D111" s="387" t="s">
         <v>2</v>
       </c>
       <c r="E111" s="7"/>
-      <c r="F111" s="388" t="s">
+      <c r="F111" s="389" t="s">
         <v>45</v>
       </c>
-      <c r="G111" s="389"/>
-      <c r="H111" s="389"/>
-      <c r="I111" s="389"/>
-      <c r="J111" s="389"/>
-      <c r="K111" s="389"/>
-      <c r="L111" s="389"/>
-      <c r="M111" s="389"/>
-      <c r="N111" s="389"/>
-      <c r="O111" s="389"/>
-      <c r="P111" s="389"/>
-      <c r="Q111" s="390"/>
-      <c r="R111" s="384" t="s">
+      <c r="G111" s="390"/>
+      <c r="H111" s="390"/>
+      <c r="I111" s="390"/>
+      <c r="J111" s="390"/>
+      <c r="K111" s="390"/>
+      <c r="L111" s="390"/>
+      <c r="M111" s="390"/>
+      <c r="N111" s="390"/>
+      <c r="O111" s="390"/>
+      <c r="P111" s="390"/>
+      <c r="Q111" s="391"/>
+      <c r="R111" s="385" t="s">
         <v>4</v>
       </c>
       <c r="S111" s="7"/>
-      <c r="T111" s="392" t="s">
+      <c r="T111" s="393" t="s">
         <v>5</v>
       </c>
-      <c r="U111" s="394" t="s">
+      <c r="U111" s="395" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="112" spans="2:21" ht="12" thickBot="1">
-      <c r="B112" s="396"/>
-      <c r="C112" s="391"/>
-      <c r="D112" s="397"/>
+      <c r="B112" s="397"/>
+      <c r="C112" s="392"/>
+      <c r="D112" s="398"/>
       <c r="E112" s="7"/>
       <c r="F112" s="8" t="s">
         <v>7</v>
@@ -10737,10 +10747,10 @@
       <c r="Q112" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="R112" s="391"/>
+      <c r="R112" s="392"/>
       <c r="S112" s="7"/>
-      <c r="T112" s="393"/>
-      <c r="U112" s="395"/>
+      <c r="T112" s="394"/>
+      <c r="U112" s="396"/>
     </row>
     <row r="113" spans="2:21">
       <c r="B113" s="63" t="s">
@@ -14094,22 +14104,22 @@
     <row r="2" spans="1:9" ht="16.5" thickBot="1"/>
     <row r="3" spans="1:9">
       <c r="A3" s="328"/>
-      <c r="B3" s="429">
+      <c r="B3" s="430">
         <v>2016</v>
       </c>
-      <c r="C3" s="430"/>
-      <c r="D3" s="429">
+      <c r="C3" s="431"/>
+      <c r="D3" s="430">
         <v>2017</v>
       </c>
-      <c r="E3" s="430"/>
-      <c r="F3" s="429">
+      <c r="E3" s="431"/>
+      <c r="F3" s="430">
         <v>2018</v>
       </c>
-      <c r="G3" s="430"/>
-      <c r="H3" s="429">
+      <c r="G3" s="431"/>
+      <c r="H3" s="430">
         <v>2019</v>
       </c>
-      <c r="I3" s="430"/>
+      <c r="I3" s="431"/>
     </row>
     <row r="4" spans="1:9" ht="16.5" thickBot="1">
       <c r="A4" s="329"/>
@@ -14148,17 +14158,17 @@
       <c r="C5" s="334"/>
       <c r="D5" s="333">
         <f>'Flujo de caja'!C62+B5</f>
-        <v>4468671.8555757068</v>
+        <v>4468671.8029755745</v>
       </c>
       <c r="E5" s="334"/>
       <c r="F5" s="333">
         <f>'Flujo de caja'!D62+D5</f>
-        <v>5756231.0418723878</v>
+        <v>5756230.9388301475</v>
       </c>
       <c r="G5" s="334"/>
       <c r="H5" s="333">
         <f>'Flujo de caja'!E62+F5</f>
-        <v>8315681.6891624713</v>
+        <v>8315681.527443408</v>
       </c>
       <c r="I5" s="334"/>
     </row>
@@ -14346,12 +14356,12 @@
       <c r="F13" s="338"/>
       <c r="G13" s="337">
         <f>E13+E14</f>
-        <v>4263985.0872820001</v>
+        <v>4263985.2225394826</v>
       </c>
       <c r="H13" s="338"/>
       <c r="I13" s="337">
         <f>G13+G14</f>
-        <v>6054846.4946079087</v>
+        <v>6054846.7595736664</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="16.5" thickBot="1">
@@ -14366,17 +14376,17 @@
       <c r="D14" s="343"/>
       <c r="E14" s="344">
         <f>'P&amp;L'!E80</f>
-        <v>1602152.1582820001</v>
+        <v>1602152.2935394831</v>
       </c>
       <c r="F14" s="343"/>
       <c r="G14" s="344">
         <f>'P&amp;L'!G80</f>
-        <v>1790861.4073259081</v>
+        <v>1790861.5370341837</v>
       </c>
       <c r="H14" s="343"/>
       <c r="I14" s="344">
         <f>'P&amp;L'!I80</f>
-        <v>2572727.1056642728</v>
+        <v>2572727.2565475311</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="16.5" thickBot="1">
@@ -14391,27 +14401,27 @@
       </c>
       <c r="D15" s="345">
         <f t="shared" si="0"/>
-        <v>5116589.516615333</v>
+        <v>5116589.4640152007</v>
       </c>
       <c r="E15" s="346">
         <f t="shared" si="0"/>
-        <v>5116589.5206153337</v>
+        <v>5116589.6558728162</v>
       </c>
       <c r="F15" s="345">
         <f t="shared" si="0"/>
-        <v>6921536.6400155649</v>
+        <v>6921536.5369733255</v>
       </c>
       <c r="G15" s="346">
         <f t="shared" si="0"/>
-        <v>6921536.6440155655</v>
+        <v>6921536.9089813242</v>
       </c>
       <c r="H15" s="345">
         <f t="shared" si="0"/>
-        <v>9518727.5860464368</v>
+        <v>9518727.4243273735</v>
       </c>
       <c r="I15" s="346">
         <f t="shared" si="0"/>
-        <v>9518727.5900464356</v>
+        <v>9518728.0058954507</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="3.95" customHeight="1" thickBot="1">
@@ -14423,26 +14433,26 @@
       <c r="A17" s="349" t="s">
         <v>286</v>
       </c>
-      <c r="B17" s="431">
+      <c r="B17" s="432">
         <f>+C14/(+SUM(B5:B10))</f>
         <v>0.28589801112781921</v>
       </c>
-      <c r="C17" s="432"/>
-      <c r="D17" s="431">
+      <c r="C17" s="433"/>
+      <c r="D17" s="432">
         <f>+E14/(+SUM(D5:D10))</f>
-        <v>0.31312892173180179</v>
-      </c>
-      <c r="E17" s="432"/>
-      <c r="F17" s="431">
+        <v>0.31312895138595065</v>
+      </c>
+      <c r="E17" s="433"/>
+      <c r="F17" s="432">
         <f>+G14/(+SUM(F5:F10))</f>
-        <v>0.25873754636685431</v>
-      </c>
-      <c r="G17" s="432"/>
-      <c r="H17" s="431">
+        <v>0.25873756895853911</v>
+      </c>
+      <c r="G17" s="433"/>
+      <c r="H17" s="432">
         <f>+I14/(+SUM(H5:H10))</f>
-        <v>0.2702805687427855</v>
-      </c>
-      <c r="I17" s="432"/>
+        <v>0.27028058918593617</v>
+      </c>
+      <c r="I17" s="433"/>
     </row>
     <row r="18" spans="1:9" hidden="1">
       <c r="A18" s="350"/>
@@ -14485,17 +14495,17 @@
       <c r="D20" s="351"/>
       <c r="E20" s="352">
         <f>D15-E15</f>
-        <v>-4.0000006556510925E-3</v>
+        <v>-0.19185761548578739</v>
       </c>
       <c r="F20" s="351"/>
       <c r="G20" s="352">
         <f>F15-G15</f>
-        <v>-4.0000006556510925E-3</v>
+        <v>-0.37200799863785505</v>
       </c>
       <c r="H20" s="352"/>
       <c r="I20" s="352">
         <f>H15-I15</f>
-        <v>-3.9999987930059433E-3</v>
+        <v>-0.58156807720661163</v>
       </c>
     </row>
     <row r="21" spans="1:9" hidden="1">
@@ -14547,7 +14557,7 @@
       </c>
       <c r="E23" s="352">
         <f>+E15-D15</f>
-        <v>4.0000006556510925E-3</v>
+        <v>0.19185761548578739</v>
       </c>
       <c r="F23" s="352">
         <f>+D23-(200200/5)</f>
@@ -14586,7 +14596,7 @@
       </c>
       <c r="E25" s="357">
         <f>C13+E14-E13</f>
-        <v>464632.18584037246</v>
+        <v>464632.32109785546</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -14707,10 +14717,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:P131"/>
+  <dimension ref="B1:R131"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" zoomScale="132" zoomScaleNormal="160" zoomScalePageLayoutView="160" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="132" zoomScaleNormal="160" zoomScalePageLayoutView="160" workbookViewId="0">
+      <selection activeCell="Q5" sqref="Q5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.875" defaultRowHeight="12"/>
@@ -14728,68 +14738,68 @@
     <col min="17" max="16384" width="10.875" style="86"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:16" ht="12.75" thickBot="1">
+    <row r="1" spans="2:18" ht="12.75" thickBot="1">
       <c r="B1" s="310" t="s">
         <v>48</v>
       </c>
-      <c r="C1" s="398">
+      <c r="C1" s="399">
         <v>2016</v>
       </c>
-      <c r="D1" s="399"/>
-      <c r="E1" s="398">
+      <c r="D1" s="400"/>
+      <c r="E1" s="399">
         <v>2017</v>
       </c>
-      <c r="F1" s="399"/>
-      <c r="G1" s="398">
+      <c r="F1" s="400"/>
+      <c r="G1" s="399">
         <v>2018</v>
       </c>
-      <c r="H1" s="399"/>
-      <c r="I1" s="398">
+      <c r="H1" s="400"/>
+      <c r="I1" s="399">
         <v>2019</v>
       </c>
-      <c r="J1" s="399"/>
-    </row>
-    <row r="2" spans="2:16">
-      <c r="B2" s="400" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="402" t="s">
+      <c r="J1" s="400"/>
+    </row>
+    <row r="2" spans="2:18">
+      <c r="B2" s="401" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="403" t="s">
         <v>49</v>
       </c>
-      <c r="D2" s="404" t="s">
+      <c r="D2" s="405" t="s">
         <v>50</v>
       </c>
-      <c r="E2" s="402" t="s">
+      <c r="E2" s="403" t="s">
         <v>49</v>
       </c>
-      <c r="F2" s="404" t="s">
+      <c r="F2" s="405" t="s">
         <v>50</v>
       </c>
-      <c r="G2" s="402" t="s">
+      <c r="G2" s="403" t="s">
         <v>49</v>
       </c>
-      <c r="H2" s="404" t="s">
+      <c r="H2" s="405" t="s">
         <v>50</v>
       </c>
-      <c r="I2" s="402" t="s">
+      <c r="I2" s="403" t="s">
         <v>49</v>
       </c>
-      <c r="J2" s="404" t="s">
+      <c r="J2" s="405" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="2:16" ht="12.75" thickBot="1">
-      <c r="B3" s="401"/>
-      <c r="C3" s="403"/>
-      <c r="D3" s="405"/>
-      <c r="E3" s="403"/>
-      <c r="F3" s="405"/>
-      <c r="G3" s="403"/>
-      <c r="H3" s="405"/>
-      <c r="I3" s="403"/>
-      <c r="J3" s="405"/>
-    </row>
-    <row r="4" spans="2:16">
+    <row r="3" spans="2:18" ht="12.75" thickBot="1">
+      <c r="B3" s="402"/>
+      <c r="C3" s="404"/>
+      <c r="D3" s="406"/>
+      <c r="E3" s="404"/>
+      <c r="F3" s="406"/>
+      <c r="G3" s="404"/>
+      <c r="H3" s="406"/>
+      <c r="I3" s="404"/>
+      <c r="J3" s="406"/>
+    </row>
+    <row r="4" spans="2:18">
       <c r="B4" s="87" t="s">
         <v>51</v>
       </c>
@@ -14831,7 +14841,7 @@
         <v>36543.604822083333</v>
       </c>
     </row>
-    <row r="5" spans="2:16">
+    <row r="5" spans="2:18">
       <c r="B5" s="90" t="s">
         <v>52</v>
       </c>
@@ -14855,6 +14865,10 @@
         <v>5486.5076545627153</v>
       </c>
       <c r="J5" s="92"/>
+      <c r="K5" s="86">
+        <f>(C6-E6)/C6</f>
+        <v>0.58653377589857703</v>
+      </c>
       <c r="L5" s="86">
         <f>C4/12</f>
         <v>74.25</v>
@@ -14864,7 +14878,7 @@
         <v>103340.14148875</v>
       </c>
     </row>
-    <row r="6" spans="2:16">
+    <row r="6" spans="2:18">
       <c r="B6" s="94" t="s">
         <v>53</v>
       </c>
@@ -14888,8 +14902,12 @@
         <v>419.40052678738601</v>
       </c>
       <c r="J6" s="376"/>
-    </row>
-    <row r="7" spans="2:16">
+      <c r="K6" s="86">
+        <f>(C7-E7)/C7</f>
+        <v>0.34044672746807031</v>
+      </c>
+    </row>
+    <row r="7" spans="2:18">
       <c r="B7" s="95" t="s">
         <v>54</v>
       </c>
@@ -14913,8 +14931,20 @@
         <v>229.37822864321609</v>
       </c>
       <c r="J7" s="97"/>
-    </row>
-    <row r="8" spans="2:16">
+      <c r="K7" s="434">
+        <f>C6+C7</f>
+        <v>1391.7864173569023</v>
+      </c>
+      <c r="Q7" s="434">
+        <f>E6+E7</f>
+        <v>665.7462126245847</v>
+      </c>
+      <c r="R7" s="86">
+        <f>(Q7-K7)/K7</f>
+        <v>-0.5216606482703845</v>
+      </c>
+    </row>
+    <row r="8" spans="2:18">
       <c r="B8" s="95"/>
       <c r="C8" s="96"/>
       <c r="D8" s="97"/>
@@ -14924,8 +14954,16 @@
       <c r="H8" s="97"/>
       <c r="I8" s="96"/>
       <c r="J8" s="97"/>
-    </row>
-    <row r="9" spans="2:16">
+      <c r="Q8" s="434">
+        <f>K7-Q7</f>
+        <v>726.04020473231765</v>
+      </c>
+      <c r="R8" s="435">
+        <f>Q8*Q7</f>
+        <v>483358.51651371852</v>
+      </c>
+    </row>
+    <row r="9" spans="2:18">
       <c r="B9" s="95"/>
       <c r="C9" s="96"/>
       <c r="D9" s="97"/>
@@ -14936,7 +14974,7 @@
       <c r="I9" s="96"/>
       <c r="J9" s="97"/>
     </row>
-    <row r="10" spans="2:16">
+    <row r="10" spans="2:18">
       <c r="B10" s="99" t="s">
         <v>5</v>
       </c>
@@ -14979,11 +15017,26 @@
         <f>(I10-G10)/G10</f>
         <v>0.20956008104254553</v>
       </c>
-    </row>
-    <row r="11" spans="2:16">
+      <c r="Q10" s="86" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="11" spans="2:18">
       <c r="B11" s="100"/>
-    </row>
-    <row r="12" spans="2:16">
+      <c r="E11" s="86">
+        <f>(E10-C10)/C10</f>
+        <v>0.18785761529409575</v>
+      </c>
+      <c r="G11" s="86">
+        <f>(G10-E10)/E10</f>
+        <v>0.18015038331564265</v>
+      </c>
+      <c r="I11" s="86">
+        <f>(I10-G10)/G10</f>
+        <v>0.20956008104254553</v>
+      </c>
+    </row>
+    <row r="12" spans="2:18">
       <c r="B12" s="101" t="s">
         <v>55</v>
       </c>
@@ -15019,7 +15072,7 @@
         <v>-7.6442165616701946E-2</v>
       </c>
     </row>
-    <row r="13" spans="2:16">
+    <row r="13" spans="2:18">
       <c r="B13" s="105" t="s">
         <v>56</v>
       </c>
@@ -15052,7 +15105,7 @@
         <v>-4.1807693178457429E-2</v>
       </c>
     </row>
-    <row r="14" spans="2:16">
+    <row r="14" spans="2:18">
       <c r="B14" s="107" t="s">
         <v>57</v>
       </c>
@@ -15089,11 +15142,11 @@
         <v>-0.11824985879515937</v>
       </c>
     </row>
-    <row r="15" spans="2:16">
+    <row r="15" spans="2:18">
       <c r="B15" s="100"/>
       <c r="E15" s="108"/>
     </row>
-    <row r="16" spans="2:16">
+    <row r="16" spans="2:18">
       <c r="B16" s="99" t="s">
         <v>58</v>
       </c>
@@ -15107,27 +15160,27 @@
       </c>
       <c r="E16" s="311">
         <f>+SUM(E10:E13)</f>
-        <v>5317354.24</v>
+        <v>5317354.4278576151</v>
       </c>
       <c r="F16" s="313">
         <f>+E16/E$10</f>
-        <v>0.86900312491467036</v>
+        <v>0.86900315561581365</v>
       </c>
       <c r="G16" s="311">
         <f>+SUM(G10:G13)</f>
-        <v>6335164.4083309984</v>
+        <v>6335164.5884813815</v>
       </c>
       <c r="H16" s="312">
         <f>+G16/G$10</f>
-        <v>0.87729626950600348</v>
+        <v>0.87729629445330537</v>
       </c>
       <c r="I16" s="311">
         <f>+SUM(I10:I13)</f>
-        <v>7701664.4074183246</v>
+        <v>7701664.616978406</v>
       </c>
       <c r="J16" s="109">
         <f>+I16/I$10</f>
-        <v>0.88175014120484063</v>
+        <v>0.88175016519700933</v>
       </c>
     </row>
     <row r="17" spans="2:10">
@@ -16983,11 +17036,20 @@
       <c r="B75" s="127"/>
       <c r="C75" s="124"/>
       <c r="D75" s="113"/>
-      <c r="E75" s="124"/>
+      <c r="E75" s="381">
+        <f>(E74-C74)/C74</f>
+        <v>0.31625691399473704</v>
+      </c>
       <c r="F75" s="113"/>
-      <c r="G75" s="124"/>
+      <c r="G75" s="381">
+        <f>(G74-E74)/E74</f>
+        <v>0.25391086691686421</v>
+      </c>
       <c r="H75" s="113"/>
-      <c r="I75" s="124"/>
+      <c r="I75" s="381">
+        <f>(I74-G74)/G74</f>
+        <v>7.6464773298392325E-2</v>
+      </c>
       <c r="J75" s="113"/>
     </row>
     <row r="76" spans="2:10">
@@ -17052,27 +17114,27 @@
       </c>
       <c r="E78" s="132">
         <f>E74+E76+E16</f>
-        <v>2225211.3309472227</v>
+        <v>2225211.5188048375</v>
       </c>
       <c r="F78" s="133">
         <f>+E78/E$10</f>
-        <v>0.36366123318289006</v>
+        <v>0.3636612638840333</v>
       </c>
       <c r="G78" s="132">
         <f>G74+G76+G16</f>
-        <v>2487307.5101748724</v>
+        <v>2487307.6903252555</v>
       </c>
       <c r="H78" s="133">
         <f>+G78/G$10</f>
-        <v>0.34444340496059167</v>
+        <v>0.34444342990789356</v>
       </c>
       <c r="I78" s="132">
         <f>I74+I76+I16</f>
-        <v>3573232.0912003787</v>
+        <v>3573232.3007604601</v>
       </c>
       <c r="J78" s="131">
         <f>+I78/I$10</f>
-        <v>0.40909311731874692</v>
+        <v>0.40909314131091556</v>
       </c>
     </row>
     <row r="79" spans="2:10">
@@ -17089,27 +17151,27 @@
       </c>
       <c r="E79" s="132">
         <f>E78*0.28*-1</f>
-        <v>-623059.17266522243</v>
+        <v>-623059.2252653545</v>
       </c>
       <c r="F79" s="133">
         <f>+E79/E$10</f>
-        <v>-0.10182514529120923</v>
+        <v>-0.10182515388752933</v>
       </c>
       <c r="G79" s="132">
         <f>G78*0.28*-1</f>
-        <v>-696446.10284896428</v>
+        <v>-696446.15329107165</v>
       </c>
       <c r="H79" s="133">
         <f>+G79/G$10</f>
-        <v>-9.644415338896567E-2</v>
+        <v>-9.6444160374210219E-2</v>
       </c>
       <c r="I79" s="132">
         <f>I78*0.28*-1</f>
-        <v>-1000504.9855361062</v>
+        <v>-1000505.044212929</v>
       </c>
       <c r="J79" s="131">
         <f>+I79/I$10</f>
-        <v>-0.11454607284924914</v>
+        <v>-0.11454607956705637</v>
       </c>
     </row>
     <row r="80" spans="2:10">
@@ -17126,27 +17188,27 @@
       </c>
       <c r="E80" s="315">
         <f>E79+E78</f>
-        <v>1602152.1582820001</v>
+        <v>1602152.2935394831</v>
       </c>
       <c r="F80" s="317">
         <f>+E80/E$10</f>
-        <v>0.26183608789168084</v>
+        <v>0.26183610999650403</v>
       </c>
       <c r="G80" s="315">
         <f>G79+G78</f>
-        <v>1790861.4073259081</v>
+        <v>1790861.5370341837</v>
       </c>
       <c r="H80" s="317">
         <f>+G80/G$10</f>
-        <v>0.247999251571626</v>
+        <v>0.24799926953368334</v>
       </c>
       <c r="I80" s="315">
         <f>I79+I78</f>
-        <v>2572727.1056642728</v>
+        <v>2572727.2565475311</v>
       </c>
       <c r="J80" s="321">
         <f>+I80/I$10</f>
-        <v>0.29454704446949781</v>
+        <v>0.2945470617438592</v>
       </c>
     </row>
     <row r="81" spans="2:10">
@@ -17162,25 +17224,25 @@
       <c r="B84" s="310" t="s">
         <v>112</v>
       </c>
-      <c r="C84" s="406">
+      <c r="C84" s="407">
         <v>2016</v>
       </c>
-      <c r="D84" s="406"/>
-      <c r="E84" s="406">
+      <c r="D84" s="407"/>
+      <c r="E84" s="407">
         <v>2017</v>
       </c>
-      <c r="F84" s="406"/>
-      <c r="G84" s="406">
+      <c r="F84" s="407"/>
+      <c r="G84" s="407">
         <v>2018</v>
       </c>
-      <c r="H84" s="406"/>
-      <c r="I84" s="406">
+      <c r="H84" s="407"/>
+      <c r="I84" s="407">
         <v>2019</v>
       </c>
-      <c r="J84" s="399"/>
+      <c r="J84" s="400"/>
     </row>
     <row r="85" spans="2:10">
-      <c r="B85" s="400" t="s">
+      <c r="B85" s="401" t="s">
         <v>0</v>
       </c>
       <c r="C85" s="134"/>
@@ -17200,12 +17262,12 @@
       <c r="I85" s="409" t="s">
         <v>49</v>
       </c>
-      <c r="J85" s="404" t="s">
+      <c r="J85" s="405" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="86" spans="2:10" ht="12.75" thickBot="1">
-      <c r="B86" s="408"/>
+      <c r="B86" s="411"/>
       <c r="C86" s="124"/>
       <c r="D86" s="136"/>
       <c r="E86" s="410"/>
@@ -17213,7 +17275,7 @@
       <c r="G86" s="410"/>
       <c r="H86" s="410"/>
       <c r="I86" s="410"/>
-      <c r="J86" s="407"/>
+      <c r="J86" s="408"/>
     </row>
     <row r="87" spans="2:10">
       <c r="B87" s="137" t="s">
@@ -18464,8 +18526,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:E121"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView topLeftCell="A107" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="C111" sqref="C111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75"/>
@@ -19155,15 +19217,15 @@
       </c>
       <c r="C59" s="217">
         <f>'P&amp;L'!E79</f>
-        <v>-623059.17266522243</v>
+        <v>-623059.2252653545</v>
       </c>
       <c r="D59" s="217">
         <f>'P&amp;L'!G79</f>
-        <v>-696446.10284896428</v>
+        <v>-696446.15329107165</v>
       </c>
       <c r="E59" s="217">
         <f>'P&amp;L'!I79</f>
-        <v>-1000504.9855361062</v>
+        <v>-1000505.044212929</v>
       </c>
     </row>
     <row r="60" spans="2:5">
@@ -19189,15 +19251,15 @@
       </c>
       <c r="C62" s="228">
         <f>C6+C8+C58+C59+C60</f>
-        <v>1483172.1805757065</v>
+        <v>1483172.1279755747</v>
       </c>
       <c r="D62" s="228">
         <f>D6+D8+D58+D59+D60</f>
-        <v>1287559.1862966805</v>
+        <v>1287559.135854573</v>
       </c>
       <c r="E62" s="228">
         <f>E6+E8+E58+E59+E60</f>
-        <v>2559450.6472900836</v>
+        <v>2559450.5886132605</v>
       </c>
     </row>
     <row r="63" spans="2:5">
@@ -19214,7 +19276,7 @@
       </c>
       <c r="C64" s="228">
         <f>NPV(C63,C62,D62,E62)</f>
-        <v>4462754.8375675399</v>
+        <v>4462754.7003514022</v>
       </c>
     </row>
     <row r="67" spans="2:5" hidden="1">
@@ -19716,15 +19778,15 @@
       </c>
       <c r="C108" s="217">
         <f>C62</f>
-        <v>1483172.1805757065</v>
+        <v>1483172.1279755747</v>
       </c>
       <c r="D108" s="217">
         <f>D62</f>
-        <v>1287559.1862966805</v>
+        <v>1287559.135854573</v>
       </c>
       <c r="E108" s="217">
         <f>E62</f>
-        <v>2559450.6472900836</v>
+        <v>2559450.5886132605</v>
       </c>
     </row>
     <row r="109" spans="2:5">
@@ -19750,15 +19812,15 @@
       </c>
       <c r="C110" s="217">
         <f>C108-C109</f>
-        <v>95960.725943149533</v>
+        <v>95960.673343017697</v>
       </c>
       <c r="D110" s="217">
         <f>D108-D109</f>
-        <v>-141752.47273063683</v>
+        <v>-141752.52317274432</v>
       </c>
       <c r="E110" s="217">
         <f>E108-E109</f>
-        <v>998853.12756160833</v>
+        <v>998853.06888478529</v>
       </c>
     </row>
     <row r="111" spans="2:5">
@@ -19767,7 +19829,7 @@
       </c>
       <c r="C111" s="217">
         <f>NPV(C112,C110,D110,E110)</f>
-        <v>749636.67158687895</v>
+        <v>749636.53437074122</v>
       </c>
     </row>
     <row r="112" spans="2:5">
@@ -19799,7 +19861,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="138" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
+    <sheetView topLeftCell="A31" zoomScale="138" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
       <selection activeCell="B43" sqref="B43:F43"/>
     </sheetView>
   </sheetViews>
@@ -20279,10 +20341,10 @@
       </c>
     </row>
     <row r="19" spans="1:8" ht="12.75" hidden="1" thickBot="1">
-      <c r="A19" s="411" t="s">
+      <c r="A19" s="412" t="s">
         <v>180</v>
       </c>
-      <c r="B19" s="412"/>
+      <c r="B19" s="413"/>
       <c r="C19" s="254">
         <f>+SUM(C2:C18)</f>
         <v>17891.746204037016</v>
@@ -20630,10 +20692,10 @@
       </c>
     </row>
     <row r="41" spans="1:6" ht="12.75" thickBot="1">
-      <c r="A41" s="411" t="s">
+      <c r="A41" s="412" t="s">
         <v>180</v>
       </c>
-      <c r="B41" s="413"/>
+      <c r="B41" s="414"/>
       <c r="C41" s="254">
         <f>SUM(C28:C40)</f>
         <v>470603.04351036006</v>
@@ -20867,7 +20929,7 @@
       </c>
     </row>
     <row r="8" spans="1:8" ht="16.5" hidden="1" thickBot="1">
-      <c r="A8" s="414" t="s">
+      <c r="A8" s="415" t="s">
         <v>201</v>
       </c>
       <c r="B8" s="266" t="s">
@@ -20897,7 +20959,7 @@
       </c>
     </row>
     <row r="9" spans="1:8" ht="16.5" hidden="1" thickBot="1">
-      <c r="A9" s="415"/>
+      <c r="A9" s="416"/>
       <c r="B9" s="266" t="s">
         <v>67</v>
       </c>
@@ -20919,7 +20981,7 @@
       <c r="H9" s="268"/>
     </row>
     <row r="10" spans="1:8" ht="16.5" hidden="1" thickBot="1">
-      <c r="A10" s="416"/>
+      <c r="A10" s="417"/>
       <c r="B10" s="266" t="s">
         <v>126</v>
       </c>
@@ -20963,10 +21025,10 @@
       <c r="H11" s="268"/>
     </row>
     <row r="12" spans="1:8" ht="16.5" hidden="1" thickBot="1">
-      <c r="A12" s="417" t="s">
+      <c r="A12" s="418" t="s">
         <v>180</v>
       </c>
-      <c r="B12" s="418"/>
+      <c r="B12" s="419"/>
       <c r="C12" s="276">
         <f>+SUM(C2:C11)</f>
         <v>551911.01500000001</v>
@@ -21109,7 +21171,7 @@
       </c>
     </row>
     <row r="23" spans="1:6" ht="16.5" thickBot="1">
-      <c r="A23" s="414" t="str">
+      <c r="A23" s="415" t="str">
         <f>A8</f>
         <v>Programa de fidelización de médicos ORL.</v>
       </c>
@@ -21135,7 +21197,7 @@
       </c>
     </row>
     <row r="24" spans="1:6" ht="16.5" thickBot="1">
-      <c r="A24" s="415"/>
+      <c r="A24" s="416"/>
       <c r="B24" s="266" t="str">
         <f t="shared" si="0"/>
         <v>Comisiones de médicos ORL.</v>
@@ -21158,7 +21220,7 @@
       </c>
     </row>
     <row r="25" spans="1:6" ht="16.5" thickBot="1">
-      <c r="A25" s="416"/>
+      <c r="A25" s="417"/>
       <c r="B25" s="266" t="str">
         <f t="shared" si="0"/>
         <v>Premios por objetivos de  ventas.</v>
@@ -21206,11 +21268,11 @@
       </c>
     </row>
     <row r="27" spans="1:6" ht="16.5" thickBot="1">
-      <c r="A27" s="417" t="str">
+      <c r="A27" s="418" t="str">
         <f>A12</f>
         <v>TOTAL</v>
       </c>
-      <c r="B27" s="418">
+      <c r="B27" s="419">
         <f>B12:F12</f>
         <v>0</v>
       </c>
@@ -21288,7 +21350,7 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="23.25" hidden="1" thickBot="1">
-      <c r="A2" s="419" t="s">
+      <c r="A2" s="420" t="s">
         <v>204</v>
       </c>
       <c r="B2" s="266" t="s">
@@ -21315,7 +21377,7 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="23.25" hidden="1" thickBot="1">
-      <c r="A3" s="420"/>
+      <c r="A3" s="421"/>
       <c r="B3" s="266" t="s">
         <v>206</v>
       </c>
@@ -21367,7 +21429,7 @@
       </c>
     </row>
     <row r="5" spans="1:11" ht="16.5" hidden="1" thickBot="1">
-      <c r="A5" s="419" t="s">
+      <c r="A5" s="420" t="s">
         <v>208</v>
       </c>
       <c r="B5" s="266" t="s">
@@ -21394,7 +21456,7 @@
       </c>
     </row>
     <row r="6" spans="1:11" ht="16.5" hidden="1" thickBot="1">
-      <c r="A6" s="421"/>
+      <c r="A6" s="422"/>
       <c r="B6" s="266" t="s">
         <v>93</v>
       </c>
@@ -21416,7 +21478,7 @@
       </c>
     </row>
     <row r="7" spans="1:11" ht="23.25" hidden="1" thickBot="1">
-      <c r="A7" s="421"/>
+      <c r="A7" s="422"/>
       <c r="B7" s="266" t="s">
         <v>94</v>
       </c>
@@ -21441,7 +21503,7 @@
       </c>
     </row>
     <row r="8" spans="1:11" ht="16.5" hidden="1" thickBot="1">
-      <c r="A8" s="421"/>
+      <c r="A8" s="422"/>
       <c r="B8" s="279" t="s">
         <v>210</v>
       </c>
@@ -21463,7 +21525,7 @@
       </c>
     </row>
     <row r="9" spans="1:11" ht="23.25" hidden="1" thickBot="1">
-      <c r="A9" s="420"/>
+      <c r="A9" s="421"/>
       <c r="B9" s="266" t="s">
         <v>96</v>
       </c>
@@ -21485,7 +21547,7 @@
       </c>
     </row>
     <row r="10" spans="1:11" ht="34.5" hidden="1" thickBot="1">
-      <c r="A10" s="419" t="s">
+      <c r="A10" s="420" t="s">
         <v>211</v>
       </c>
       <c r="B10" s="266" t="s">
@@ -21512,7 +21574,7 @@
       </c>
     </row>
     <row r="11" spans="1:11" ht="16.5" hidden="1" thickBot="1">
-      <c r="A11" s="421"/>
+      <c r="A11" s="422"/>
       <c r="B11" s="266" t="s">
         <v>98</v>
       </c>
@@ -21540,7 +21602,7 @@
       </c>
     </row>
     <row r="12" spans="1:11" ht="16.5" hidden="1" thickBot="1">
-      <c r="A12" s="420"/>
+      <c r="A12" s="421"/>
       <c r="B12" s="266" t="s">
         <v>99</v>
       </c>
@@ -21654,10 +21716,10 @@
       </c>
     </row>
     <row r="16" spans="1:11" ht="16.5" hidden="1" thickBot="1">
-      <c r="A16" s="417" t="s">
+      <c r="A16" s="418" t="s">
         <v>180</v>
       </c>
-      <c r="B16" s="418"/>
+      <c r="B16" s="419"/>
       <c r="C16" s="281">
         <f>+SUM(C2:C15)</f>
         <v>1185445.9286791668</v>
@@ -21755,7 +21817,7 @@
       </c>
     </row>
     <row r="21" spans="1:6" ht="23.25" customHeight="1" thickBot="1">
-      <c r="A21" s="419" t="str">
+      <c r="A21" s="420" t="str">
         <f>A5</f>
         <v>Capacitación local y en la matriz para colaboradores.</v>
       </c>
@@ -21781,7 +21843,7 @@
       </c>
     </row>
     <row r="22" spans="1:6" ht="23.25" thickBot="1">
-      <c r="A22" s="421"/>
+      <c r="A22" s="422"/>
       <c r="B22" s="266" t="str">
         <f t="shared" si="2"/>
         <v>Actualización en herramientas de gestión.</v>
@@ -21804,7 +21866,7 @@
       </c>
     </row>
     <row r="23" spans="1:6" ht="16.5" thickBot="1">
-      <c r="A23" s="421"/>
+      <c r="A23" s="422"/>
       <c r="B23" s="266" t="str">
         <f t="shared" si="2"/>
         <v>Coaching de competencias gerenciales.</v>
@@ -21827,7 +21889,7 @@
       </c>
     </row>
     <row r="24" spans="1:6" ht="23.25" thickBot="1">
-      <c r="A24" s="420"/>
+      <c r="A24" s="421"/>
       <c r="B24" s="266" t="str">
         <f t="shared" si="2"/>
         <v>Pasantías en la matriz de Starkey Laboratories.</v>
@@ -21850,7 +21912,7 @@
       </c>
     </row>
     <row r="25" spans="1:6" ht="34.5" thickBot="1">
-      <c r="A25" s="419" t="str">
+      <c r="A25" s="420" t="str">
         <f t="shared" ref="A25:A30" si="3">A10</f>
         <v>Aumentar el porcentaje de colaboradores con salario variable  ligados a evaluaciones por desempeño</v>
       </c>
@@ -21876,7 +21938,7 @@
       </c>
     </row>
     <row r="26" spans="1:6" ht="16.5" thickBot="1">
-      <c r="A26" s="421">
+      <c r="A26" s="422">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -21902,7 +21964,7 @@
       </c>
     </row>
     <row r="27" spans="1:6" ht="16.5" thickBot="1">
-      <c r="A27" s="420">
+      <c r="A27" s="421">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -22006,10 +22068,10 @@
       </c>
     </row>
     <row r="31" spans="1:6" ht="16.5" thickBot="1">
-      <c r="A31" s="417" t="s">
+      <c r="A31" s="418" t="s">
         <v>180</v>
       </c>
-      <c r="B31" s="418"/>
+      <c r="B31" s="419"/>
       <c r="C31" s="281">
         <f>SUM(C19:C30)</f>
         <v>1185445.9286791668</v>
@@ -22103,15 +22165,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="16.5" thickBot="1">
-      <c r="B1" s="422">
+      <c r="B1" s="423">
         <v>2016</v>
       </c>
-      <c r="C1" s="423"/>
-      <c r="D1" s="423"/>
-      <c r="E1" s="423"/>
-      <c r="F1" s="423"/>
-      <c r="G1" s="423"/>
-      <c r="H1" s="424"/>
+      <c r="C1" s="424"/>
+      <c r="D1" s="424"/>
+      <c r="E1" s="424"/>
+      <c r="F1" s="424"/>
+      <c r="G1" s="424"/>
+      <c r="H1" s="425"/>
     </row>
     <row r="2" spans="1:8" ht="16.5" thickBot="1">
       <c r="B2" s="287" t="s">
@@ -22756,15 +22818,15 @@
     </row>
     <row r="29" spans="1:9" ht="16.5" thickBot="1"/>
     <row r="30" spans="1:9" ht="16.5" thickBot="1">
-      <c r="B30" s="422">
+      <c r="B30" s="423">
         <v>2017</v>
       </c>
-      <c r="C30" s="423"/>
-      <c r="D30" s="423"/>
-      <c r="E30" s="423"/>
-      <c r="F30" s="423"/>
-      <c r="G30" s="423"/>
-      <c r="H30" s="424"/>
+      <c r="C30" s="424"/>
+      <c r="D30" s="424"/>
+      <c r="E30" s="424"/>
+      <c r="F30" s="424"/>
+      <c r="G30" s="424"/>
+      <c r="H30" s="425"/>
     </row>
     <row r="31" spans="1:9" ht="16.5" thickBot="1">
       <c r="B31" s="287" t="s">
@@ -23496,15 +23558,15 @@
     </row>
     <row r="57" spans="1:8" ht="16.5" thickBot="1"/>
     <row r="58" spans="1:8" ht="16.5" thickBot="1">
-      <c r="B58" s="422">
+      <c r="B58" s="423">
         <v>2018</v>
       </c>
-      <c r="C58" s="423"/>
-      <c r="D58" s="423"/>
-      <c r="E58" s="423"/>
-      <c r="F58" s="423"/>
-      <c r="G58" s="423"/>
-      <c r="H58" s="424"/>
+      <c r="C58" s="424"/>
+      <c r="D58" s="424"/>
+      <c r="E58" s="424"/>
+      <c r="F58" s="424"/>
+      <c r="G58" s="424"/>
+      <c r="H58" s="425"/>
     </row>
     <row r="59" spans="1:8" ht="16.5" thickBot="1">
       <c r="B59" s="287" t="s">
@@ -24314,15 +24376,15 @@
     </row>
     <row r="87" spans="1:8" ht="16.5" thickBot="1"/>
     <row r="88" spans="1:8" ht="16.5" thickBot="1">
-      <c r="B88" s="422">
+      <c r="B88" s="423">
         <v>2019</v>
       </c>
-      <c r="C88" s="423"/>
-      <c r="D88" s="423"/>
-      <c r="E88" s="423"/>
-      <c r="F88" s="423"/>
-      <c r="G88" s="423"/>
-      <c r="H88" s="424"/>
+      <c r="C88" s="424"/>
+      <c r="D88" s="424"/>
+      <c r="E88" s="424"/>
+      <c r="F88" s="424"/>
+      <c r="G88" s="424"/>
+      <c r="H88" s="425"/>
     </row>
     <row r="89" spans="1:8" ht="16.5" thickBot="1">
       <c r="B89" s="287" t="s">
@@ -25234,7 +25296,7 @@
       </c>
     </row>
     <row r="4" spans="1:8" ht="24.75" hidden="1" thickBot="1">
-      <c r="A4" s="414" t="s">
+      <c r="A4" s="415" t="s">
         <v>221</v>
       </c>
       <c r="B4" s="266" t="s">
@@ -25261,7 +25323,7 @@
       </c>
     </row>
     <row r="5" spans="1:8" ht="24.75" hidden="1" thickBot="1">
-      <c r="A5" s="415"/>
+      <c r="A5" s="416"/>
       <c r="B5" s="266" t="s">
         <v>106</v>
       </c>
@@ -25286,7 +25348,7 @@
       </c>
     </row>
     <row r="6" spans="1:8" ht="24.75" hidden="1" thickBot="1">
-      <c r="A6" s="416"/>
+      <c r="A6" s="417"/>
       <c r="B6" s="266" t="s">
         <v>223</v>
       </c>
@@ -25310,10 +25372,10 @@
       </c>
     </row>
     <row r="7" spans="1:8" ht="16.5" hidden="1" thickBot="1">
-      <c r="A7" s="425" t="s">
+      <c r="A7" s="426" t="s">
         <v>180</v>
       </c>
-      <c r="B7" s="426"/>
+      <c r="B7" s="427"/>
       <c r="C7" s="286">
         <f>+SUM(C2:C6)</f>
         <v>0</v>
@@ -25379,7 +25441,7 @@
       </c>
     </row>
     <row r="11" spans="1:8" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A11" s="427" t="str">
+      <c r="A11" s="428" t="str">
         <f t="shared" ref="A11:F11" si="1">A4</f>
         <v>Participar en forma proactiva en campañas de ayuda educativas o de despistaje en el Perú</v>
       </c>
@@ -25405,7 +25467,7 @@
       </c>
     </row>
     <row r="12" spans="1:8" ht="23.25" thickBot="1">
-      <c r="A12" s="428"/>
+      <c r="A12" s="429"/>
       <c r="B12" s="266" t="str">
         <f>B5</f>
         <v>Campañas de educación para el cuidado auditivo en colegios.</v>
@@ -25428,10 +25490,10 @@
       </c>
     </row>
     <row r="13" spans="1:8" ht="16.5" thickBot="1">
-      <c r="A13" s="425" t="s">
+      <c r="A13" s="426" t="s">
         <v>180</v>
       </c>
-      <c r="B13" s="426"/>
+      <c r="B13" s="427"/>
       <c r="C13" s="286">
         <f>SUM(C10:C12)</f>
         <v>0</v>
